--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lipc-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lipc-Lrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9004243333333332</v>
+        <v>1.244868333333333</v>
       </c>
       <c r="H2">
-        <v>2.701273</v>
+        <v>3.734605</v>
       </c>
       <c r="I2">
-        <v>0.5517399498398359</v>
+        <v>0.5907216677480573</v>
       </c>
       <c r="J2">
-        <v>0.5517399498398359</v>
+        <v>0.5907216677480575</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N2">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q2">
-        <v>6.073124716450776</v>
+        <v>7.849948000276667</v>
       </c>
       <c r="R2">
-        <v>54.65812244805699</v>
+        <v>70.64953200249001</v>
       </c>
       <c r="S2">
-        <v>0.005789258717508165</v>
+        <v>0.008011074921173457</v>
       </c>
       <c r="T2">
-        <v>0.005789258717508166</v>
+        <v>0.008011074921173457</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9004243333333332</v>
+        <v>1.244868333333333</v>
       </c>
       <c r="H3">
-        <v>2.701273</v>
+        <v>3.734605</v>
       </c>
       <c r="I3">
-        <v>0.5517399498398359</v>
+        <v>0.5907216677480573</v>
       </c>
       <c r="J3">
-        <v>0.5517399498398359</v>
+        <v>0.5907216677480575</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P3">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q3">
-        <v>164.3559683772034</v>
+        <v>227.2279111668261</v>
       </c>
       <c r="R3">
-        <v>1479.203715394831</v>
+        <v>2045.051200501435</v>
       </c>
       <c r="S3">
-        <v>0.1566737498613879</v>
+        <v>0.2318919590900518</v>
       </c>
       <c r="T3">
-        <v>0.1566737498613879</v>
+        <v>0.2318919590900518</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9004243333333332</v>
+        <v>1.244868333333333</v>
       </c>
       <c r="H4">
-        <v>2.701273</v>
+        <v>3.734605</v>
       </c>
       <c r="I4">
-        <v>0.5517399498398359</v>
+        <v>0.5907216677480573</v>
       </c>
       <c r="J4">
-        <v>0.5517399498398359</v>
+        <v>0.5907216677480575</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N4">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q4">
-        <v>224.3253382999821</v>
+        <v>158.5917354265883</v>
       </c>
       <c r="R4">
-        <v>2018.928044699839</v>
+        <v>1427.325618839295</v>
       </c>
       <c r="S4">
-        <v>0.2138400709594032</v>
+        <v>0.1618469669272383</v>
       </c>
       <c r="T4">
-        <v>0.2138400709594032</v>
+        <v>0.1618469669272383</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9004243333333332</v>
+        <v>1.244868333333333</v>
       </c>
       <c r="H5">
-        <v>2.701273</v>
+        <v>3.734605</v>
       </c>
       <c r="I5">
-        <v>0.5517399498398359</v>
+        <v>0.5907216677480573</v>
       </c>
       <c r="J5">
-        <v>0.5517399498398359</v>
+        <v>0.5907216677480575</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N5">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q5">
-        <v>15.72180624727244</v>
+        <v>24.18032416649111</v>
       </c>
       <c r="R5">
-        <v>141.496256225452</v>
+        <v>217.62291749842</v>
       </c>
       <c r="S5">
-        <v>0.01498694792574396</v>
+        <v>0.02467664607576945</v>
       </c>
       <c r="T5">
-        <v>0.01498694792574396</v>
+        <v>0.02467664607576945</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9004243333333332</v>
+        <v>1.244868333333333</v>
       </c>
       <c r="H6">
-        <v>2.701273</v>
+        <v>3.734605</v>
       </c>
       <c r="I6">
-        <v>0.5517399498398359</v>
+        <v>0.5907216677480573</v>
       </c>
       <c r="J6">
-        <v>0.5517399498398359</v>
+        <v>0.5907216677480575</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N6">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q6">
-        <v>168.3172987909674</v>
+        <v>160.9905514747056</v>
       </c>
       <c r="R6">
-        <v>1514.855689118707</v>
+        <v>1448.91496327235</v>
       </c>
       <c r="S6">
-        <v>0.1604499223757926</v>
+        <v>0.1642950207338244</v>
       </c>
       <c r="T6">
-        <v>0.1604499223757926</v>
+        <v>0.1642950207338244</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>0.2382576666666667</v>
       </c>
       <c r="H7">
-        <v>0.714773</v>
+        <v>0.7147730000000001</v>
       </c>
       <c r="I7">
-        <v>0.1459936922950287</v>
+        <v>0.1130593191572555</v>
       </c>
       <c r="J7">
-        <v>0.1459936922950287</v>
+        <v>0.1130593191572555</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N7">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q7">
-        <v>1.606985141061889</v>
+        <v>1.502416154319334</v>
       </c>
       <c r="R7">
-        <v>14.462866269557</v>
+        <v>13.521745388874</v>
       </c>
       <c r="S7">
-        <v>0.001531872499110406</v>
+        <v>0.001533254535521673</v>
       </c>
       <c r="T7">
-        <v>0.001531872499110407</v>
+        <v>0.001533254535521673</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>0.2382576666666667</v>
       </c>
       <c r="H8">
-        <v>0.714773</v>
+        <v>0.7147730000000001</v>
       </c>
       <c r="I8">
-        <v>0.1459936922950287</v>
+        <v>0.1130593191572555</v>
       </c>
       <c r="J8">
-        <v>0.1459936922950287</v>
+        <v>0.1130593191572555</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P8">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q8">
-        <v>43.48957272548122</v>
+        <v>43.48957272548123</v>
       </c>
       <c r="R8">
         <v>391.406154529331</v>
       </c>
       <c r="S8">
-        <v>0.04145681173641977</v>
+        <v>0.04438223353598938</v>
       </c>
       <c r="T8">
-        <v>0.04145681173641978</v>
+        <v>0.04438223353598938</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>0.2382576666666667</v>
       </c>
       <c r="H9">
-        <v>0.714773</v>
+        <v>0.7147730000000001</v>
       </c>
       <c r="I9">
-        <v>0.1459936922950287</v>
+        <v>0.1130593191572555</v>
       </c>
       <c r="J9">
-        <v>0.1459936922950287</v>
+        <v>0.1130593191572555</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N9">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q9">
-        <v>59.35782685892656</v>
+        <v>30.35316733792967</v>
       </c>
       <c r="R9">
-        <v>534.220441730339</v>
+        <v>273.178506041367</v>
       </c>
       <c r="S9">
-        <v>0.05658336237761438</v>
+        <v>0.03097619215190975</v>
       </c>
       <c r="T9">
-        <v>0.05658336237761439</v>
+        <v>0.03097619215190975</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>0.2382576666666667</v>
       </c>
       <c r="H10">
-        <v>0.714773</v>
+        <v>0.7147730000000001</v>
       </c>
       <c r="I10">
-        <v>0.1459936922950287</v>
+        <v>0.1130593191572555</v>
       </c>
       <c r="J10">
-        <v>0.1459936922950287</v>
+        <v>0.1130593191572555</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N10">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q10">
-        <v>4.160084011050222</v>
+        <v>4.627917235010223</v>
       </c>
       <c r="R10">
-        <v>37.440756099452</v>
+        <v>41.65125511509201</v>
       </c>
       <c r="S10">
-        <v>0.003965636101840794</v>
+        <v>0.004722909208742547</v>
       </c>
       <c r="T10">
-        <v>0.003965636101840794</v>
+        <v>0.004722909208742547</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>0.2382576666666667</v>
       </c>
       <c r="H11">
-        <v>0.714773</v>
+        <v>0.7147730000000001</v>
       </c>
       <c r="I11">
-        <v>0.1459936922950287</v>
+        <v>0.1130593191572555</v>
       </c>
       <c r="J11">
-        <v>0.1459936922950287</v>
+        <v>0.1130593191572555</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N11">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q11">
-        <v>44.53776445724523</v>
+        <v>30.81228120490112</v>
       </c>
       <c r="R11">
-        <v>400.839880115207</v>
+        <v>277.3105308441101</v>
       </c>
       <c r="S11">
-        <v>0.04245600958004335</v>
+        <v>0.03144472972509219</v>
       </c>
       <c r="T11">
-        <v>0.04245600958004335</v>
+        <v>0.03144472972509218</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.2552933333333333</v>
+        <v>0.2204436666666667</v>
       </c>
       <c r="H12">
-        <v>0.76588</v>
+        <v>0.661331</v>
       </c>
       <c r="I12">
-        <v>0.1564323905000841</v>
+        <v>0.1046061233392797</v>
       </c>
       <c r="J12">
-        <v>0.1564323905000841</v>
+        <v>0.1046061233392797</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N12">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q12">
-        <v>1.721886220991111</v>
+        <v>1.390083813675333</v>
       </c>
       <c r="R12">
-        <v>15.49697598892</v>
+        <v>12.510754323078</v>
       </c>
       <c r="S12">
-        <v>0.001641402948374768</v>
+        <v>0.001418616477162796</v>
       </c>
       <c r="T12">
-        <v>0.001641402948374768</v>
+        <v>0.001418616477162796</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.2552933333333333</v>
+        <v>0.2204436666666667</v>
       </c>
       <c r="H13">
-        <v>0.76588</v>
+        <v>0.661331</v>
       </c>
       <c r="I13">
-        <v>0.1564323905000841</v>
+        <v>0.1046061233392797</v>
       </c>
       <c r="J13">
-        <v>0.1564323905000841</v>
+        <v>0.1046061233392797</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>547.595047</v>
       </c>
       <c r="O13">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P13">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q13">
-        <v>46.59912162181778</v>
+        <v>40.23795333639523</v>
       </c>
       <c r="R13">
-        <v>419.39209459636</v>
+        <v>362.141580027557</v>
       </c>
       <c r="S13">
-        <v>0.04442101614455102</v>
+        <v>0.04106387186783691</v>
       </c>
       <c r="T13">
-        <v>0.04442101614455103</v>
+        <v>0.04106387186783691</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2552933333333333</v>
+        <v>0.2204436666666667</v>
       </c>
       <c r="H14">
-        <v>0.76588</v>
+        <v>0.661331</v>
       </c>
       <c r="I14">
-        <v>0.1564323905000841</v>
+        <v>0.1046061233392797</v>
       </c>
       <c r="J14">
-        <v>0.1564323905000841</v>
+        <v>0.1046061233392797</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N14">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q14">
-        <v>63.60197214320444</v>
+        <v>28.08372799302767</v>
       </c>
       <c r="R14">
-        <v>572.41774928884</v>
+        <v>252.753551937249</v>
       </c>
       <c r="S14">
-        <v>0.06062913061596801</v>
+        <v>0.02866017061642594</v>
       </c>
       <c r="T14">
-        <v>0.06062913061596802</v>
+        <v>0.02866017061642595</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2552933333333333</v>
+        <v>0.2204436666666667</v>
       </c>
       <c r="H15">
-        <v>0.76588</v>
+        <v>0.661331</v>
       </c>
       <c r="I15">
-        <v>0.1564323905000841</v>
+        <v>0.1046061233392797</v>
       </c>
       <c r="J15">
-        <v>0.1564323905000841</v>
+        <v>0.1046061233392797</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N15">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q15">
-        <v>4.457534269457778</v>
+        <v>4.281898075258223</v>
       </c>
       <c r="R15">
-        <v>40.11780842512</v>
+        <v>38.537082677324</v>
       </c>
       <c r="S15">
-        <v>0.00424918313601357</v>
+        <v>0.004369787708722792</v>
       </c>
       <c r="T15">
-        <v>0.00424918313601357</v>
+        <v>0.004369787708722792</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2552933333333333</v>
+        <v>0.2204436666666667</v>
       </c>
       <c r="H16">
-        <v>0.76588</v>
+        <v>0.661331</v>
       </c>
       <c r="I16">
-        <v>0.1564323905000841</v>
+        <v>0.1046061233392797</v>
       </c>
       <c r="J16">
-        <v>0.1564323905000841</v>
+        <v>0.1046061233392797</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N16">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q16">
-        <v>47.72226013365778</v>
+        <v>28.50851492924112</v>
       </c>
       <c r="R16">
-        <v>429.50034120292</v>
+        <v>256.57663436317</v>
       </c>
       <c r="S16">
-        <v>0.04549165765517668</v>
+        <v>0.02909367666913123</v>
       </c>
       <c r="T16">
-        <v>0.04549165765517668</v>
+        <v>0.02909367666913122</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.128085</v>
+        <v>0.1716406666666667</v>
       </c>
       <c r="H17">
-        <v>0.384255</v>
+        <v>0.514922</v>
       </c>
       <c r="I17">
-        <v>0.07848478640467149</v>
+        <v>0.08144785930511129</v>
       </c>
       <c r="J17">
-        <v>0.07848478640467149</v>
+        <v>0.08144785930511131</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N17">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q17">
-        <v>0.863899553255</v>
+        <v>1.082339611337333</v>
       </c>
       <c r="R17">
-        <v>7.775095979295</v>
+        <v>9.741056502036001</v>
       </c>
       <c r="S17">
-        <v>0.0008235197288449189</v>
+        <v>0.001104555560912192</v>
       </c>
       <c r="T17">
-        <v>0.000823519728844919</v>
+        <v>0.001104555560912192</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.128085</v>
+        <v>0.1716406666666667</v>
       </c>
       <c r="H18">
-        <v>0.384255</v>
+        <v>0.514922</v>
       </c>
       <c r="I18">
-        <v>0.07848478640467149</v>
+        <v>0.08144785930511129</v>
       </c>
       <c r="J18">
-        <v>0.07848478640467149</v>
+        <v>0.08144785930511131</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>547.595047</v>
       </c>
       <c r="O18">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P18">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q18">
-        <v>23.379570531665</v>
+        <v>31.32985964348156</v>
       </c>
       <c r="R18">
-        <v>210.416134784985</v>
+        <v>281.968736791334</v>
       </c>
       <c r="S18">
-        <v>0.0222867780313162</v>
+        <v>0.03197293190540035</v>
       </c>
       <c r="T18">
-        <v>0.02228677803131621</v>
+        <v>0.03197293190540035</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.128085</v>
+        <v>0.1716406666666667</v>
       </c>
       <c r="H19">
-        <v>0.384255</v>
+        <v>0.514922</v>
       </c>
       <c r="I19">
-        <v>0.07848478640467149</v>
+        <v>0.08144785930511129</v>
       </c>
       <c r="J19">
-        <v>0.07848478640467149</v>
+        <v>0.08144785930511131</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N19">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q19">
-        <v>31.910189332385</v>
+        <v>21.86640182544867</v>
       </c>
       <c r="R19">
-        <v>287.191703991465</v>
+        <v>196.797616429038</v>
       </c>
       <c r="S19">
-        <v>0.03041866426181489</v>
+        <v>0.02231522849246637</v>
       </c>
       <c r="T19">
-        <v>0.03041866426181489</v>
+        <v>0.02231522849246638</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.128085</v>
+        <v>0.1716406666666667</v>
       </c>
       <c r="H20">
-        <v>0.384255</v>
+        <v>0.514922</v>
       </c>
       <c r="I20">
-        <v>0.07848478640467149</v>
+        <v>0.08144785930511129</v>
       </c>
       <c r="J20">
-        <v>0.07848478640467149</v>
+        <v>0.08144785930511131</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N20">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q20">
-        <v>2.23642062818</v>
+        <v>3.333948538187555</v>
       </c>
       <c r="R20">
-        <v>20.12778565362</v>
+        <v>30.005536843688</v>
       </c>
       <c r="S20">
-        <v>0.002131887326903554</v>
+        <v>0.003402380693708533</v>
       </c>
       <c r="T20">
-        <v>0.002131887326903555</v>
+        <v>0.003402380693708533</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.128085</v>
+        <v>0.1716406666666667</v>
       </c>
       <c r="H21">
-        <v>0.384255</v>
+        <v>0.514922</v>
       </c>
       <c r="I21">
-        <v>0.07848478640467149</v>
+        <v>0.08144785930511129</v>
       </c>
       <c r="J21">
-        <v>0.07848478640467149</v>
+        <v>0.08144785930511131</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N21">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q21">
-        <v>23.943068193005</v>
+        <v>22.19714715383778</v>
       </c>
       <c r="R21">
-        <v>215.487613737045</v>
+        <v>199.77432438454</v>
       </c>
       <c r="S21">
-        <v>0.02282393705579192</v>
+        <v>0.02265276265262386</v>
       </c>
       <c r="T21">
-        <v>0.02282393705579192</v>
+        <v>0.02265276265262386</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.109912</v>
+        <v>0.2321583333333333</v>
       </c>
       <c r="H22">
-        <v>0.329736</v>
+        <v>0.696475</v>
       </c>
       <c r="I22">
-        <v>0.06734918096037985</v>
+        <v>0.1101650304502961</v>
       </c>
       <c r="J22">
-        <v>0.06734918096037984</v>
+        <v>0.1101650304502961</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N22">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q22">
-        <v>0.7413274598693332</v>
+        <v>1.463954697616667</v>
       </c>
       <c r="R22">
-        <v>6.671947138824</v>
+        <v>13.17559227855</v>
       </c>
       <c r="S22">
-        <v>0.0007066768195870143</v>
+        <v>0.001494003624405869</v>
       </c>
       <c r="T22">
-        <v>0.0007066768195870143</v>
+        <v>0.001494003624405869</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.109912</v>
+        <v>0.2321583333333333</v>
       </c>
       <c r="H23">
-        <v>0.329736</v>
+        <v>0.696475</v>
       </c>
       <c r="I23">
-        <v>0.06734918096037985</v>
+        <v>0.1101650304502961</v>
       </c>
       <c r="J23">
-        <v>0.06734918096037984</v>
+        <v>0.1101650304502961</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>547.595047</v>
       </c>
       <c r="O23">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P23">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q23">
-        <v>20.06242226862133</v>
+        <v>42.37625115103612</v>
       </c>
       <c r="R23">
-        <v>180.561800417592</v>
+        <v>381.386260359325</v>
       </c>
       <c r="S23">
-        <v>0.01912467772946111</v>
+        <v>0.0432460600805825</v>
       </c>
       <c r="T23">
-        <v>0.01912467772946111</v>
+        <v>0.0432460600805825</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.109912</v>
+        <v>0.2321583333333333</v>
       </c>
       <c r="H24">
-        <v>0.329736</v>
+        <v>0.696475</v>
       </c>
       <c r="I24">
-        <v>0.06734918096037985</v>
+        <v>0.1101650304502961</v>
       </c>
       <c r="J24">
-        <v>0.06734918096037984</v>
+        <v>0.1101650304502961</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N24">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q24">
-        <v>27.38269688020533</v>
+        <v>29.57613427155833</v>
       </c>
       <c r="R24">
-        <v>246.444271921848</v>
+        <v>266.185208444025</v>
       </c>
       <c r="S24">
-        <v>0.02610279288241869</v>
+        <v>0.03018320981486617</v>
       </c>
       <c r="T24">
-        <v>0.02610279288241869</v>
+        <v>0.03018320981486617</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.109912</v>
+        <v>0.2321583333333333</v>
       </c>
       <c r="H25">
-        <v>0.329736</v>
+        <v>0.696475</v>
       </c>
       <c r="I25">
-        <v>0.06734918096037985</v>
+        <v>0.1101650304502961</v>
       </c>
       <c r="J25">
-        <v>0.06734918096037984</v>
+        <v>0.1101650304502961</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N25">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q25">
-        <v>1.919112027829333</v>
+        <v>4.509443776211111</v>
       </c>
       <c r="R25">
-        <v>17.272008250464</v>
+        <v>40.5849939859</v>
       </c>
       <c r="S25">
-        <v>0.001829410156338553</v>
+        <v>0.004602003980507048</v>
       </c>
       <c r="T25">
-        <v>0.001829410156338552</v>
+        <v>0.004602003980507047</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.109912</v>
+        <v>0.2321583333333333</v>
       </c>
       <c r="H26">
-        <v>0.329736</v>
+        <v>0.696475</v>
       </c>
       <c r="I26">
-        <v>0.06734918096037985</v>
+        <v>0.1101650304502961</v>
       </c>
       <c r="J26">
-        <v>0.06734918096037984</v>
+        <v>0.1101650304502961</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N26">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q26">
-        <v>20.54596956106933</v>
+        <v>30.02349494480556</v>
       </c>
       <c r="R26">
-        <v>184.913726049624</v>
+        <v>270.21145450325</v>
       </c>
       <c r="S26">
-        <v>0.01958562337257447</v>
+        <v>0.03063975294993456</v>
       </c>
       <c r="T26">
-        <v>0.01958562337257447</v>
+        <v>0.03063975294993455</v>
       </c>
     </row>
   </sheetData>
